--- a/dashboard-ui/src/components/DRE-Research/variables/Variable Definitions RQ2.2_2.3.xlsx
+++ b/dashboard-ui/src/components/DRE-Research/variables/Variable Definitions RQ2.2_2.3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28116"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{284E5881-B2AF-4B33-8FC3-E44B00FCD449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79FCA41B-A8D5-4C4B-AA76-EFC9A9232772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Variables</t>
   </si>
@@ -60,9 +60,15 @@
     <t>Aligned ADM Alignment Score (ADM|target)</t>
   </si>
   <si>
+    <t>Aligned Server Session ID</t>
+  </si>
+  <si>
     <t>Baseline ADM Alignment score (ADM|target)</t>
   </si>
   <si>
+    <t>Baseline Server Session ID</t>
+  </si>
+  <si>
     <t>Source</t>
   </si>
   <si>
@@ -72,13 +78,22 @@
     <t>TA1 Server</t>
   </si>
   <si>
+    <t>ADM output/TA1 Server</t>
+  </si>
+  <si>
     <t>Definition</t>
   </si>
   <si>
     <t>Trials within scenario within attribute within TA2</t>
   </si>
   <si>
+    <t>The session id used to get the alignment value of the aligned ADM at the specified target from the TA1 server</t>
+  </si>
+  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>The session id used to get the alignment of the baseline ADM at the specified target from the TA1 server</t>
   </si>
   <si>
     <t>Levels</t>
@@ -455,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,71 +509,95 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
